--- a/biology/Zoologie/Cratogeomys_fumosus/Cratogeomys_fumosus.xlsx
+++ b/biology/Zoologie/Cratogeomys_fumosus/Cratogeomys_fumosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cratogeomys fumosus est une espèce de Rongeurs de la famille des Géomyidés qui rassemble des gaufres ou rats à poche, c'est-à-dire à abajoues. 
-Décrite pour la première fois en 1892 par un zoologiste américain, Clinton Hart Merriam (1855-1942), les auteurs ont longtemps classé cette espèce dans le genre Pappogeomys. La taxinomie de Cratogeomys fumosus a été révisée en 2004 et suggère d'inclure cette espèce quatre espèces originairement distinctes : C. gymnurus, C. neglectus, C. tylorhinus et C. zinseri (Hafner et al. 2004) [1].
+Décrite pour la première fois en 1892 par un zoologiste américain, Clinton Hart Merriam (1855-1942), les auteurs ont longtemps classé cette espèce dans le genre Pappogeomys. La taxinomie de Cratogeomys fumosus a été révisée en 2004 et suggère d'inclure cette espèce quatre espèces originairement distinctes : C. gymnurus, C. neglectus, C. tylorhinus et C. zinseri (Hafner et al. 2004) .
 Synonymes :
 Pappogeomys fumosus (Merriam, 1892)
 Pappogeomys gymnurus (Merriam, 1892)
@@ -518,9 +530,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique où elle est présente entre 300 et 3 370 m d'altitude. Elle vit dans les forêts de pins et de chênes ainsi que dans les prairies[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique où elle est présente entre 300 et 3 370 m d'altitude. Elle vit dans les forêts de pins et de chênes ainsi que dans les prairies.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (4 juin 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (4 juin 2017) :
 sous-espèce Cratogeomys fumosus angustirostris (Merriam, 1903)
 sous-espèce Cratogeomys fumosus fumosus (Merriam, 1892)
 sous-espèce Cratogeomys fumosus imparilis (Goldman, 1939)
